--- a/动力煤/eta/1.动力煤_数据上传.xlsx
+++ b/动力煤/eta/1.动力煤_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23520" windowHeight="10740" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>

--- a/动力煤/eta/1.动力煤_数据上传.xlsx
+++ b/动力煤/eta/1.动力煤_数据上传.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23520" windowHeight="10740" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="列表页" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="详情页" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="列表页" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="详情页" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="日度数据表" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1140,7 +1140,7 @@
         <v>45805</v>
       </c>
       <c r="F3" s="10" t="n">
-        <v>753.78</v>
+        <v>770.78</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0.02206054908341497</v>
+        <v>0.02337818073274473</v>
       </c>
     </row>
     <row r="4">
@@ -1242,7 +1242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -1293,48 +1293,43 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025/11/30</t>
+          <t>2025/12/31</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>753.78</v>
+        <v>770.78</v>
       </c>
       <c r="E3" s="1" t="n"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>733.75</v>
+          <t>2025/11/30</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>704.21</v>
+        <v>771.4299999999999</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>正确</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>0.04025894378194203</v>
-      </c>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n"/>
       <c r="Q4" s="11" t="n"/>
       <c r="R4" s="11" t="n"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>695.3</v>
+        <v>740.87</v>
       </c>
       <c r="C5" t="n">
-        <v>718.47</v>
+        <v>704.21</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1342,7 +1337,7 @@
         </is>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.03332374514598026</v>
+        <v>0.04948236532725035</v>
       </c>
       <c r="J5" s="12" t="n"/>
       <c r="O5" s="12" t="n"/>
@@ -1353,16 +1348,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025/08/31</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689.67</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>683.9</t>
-        </is>
+        <v>695.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>718.47</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1370,7 +1363,7 @@
         </is>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0.008366320124117305</v>
+        <v>0.03332374514598026</v>
       </c>
       <c r="J6" s="12" t="n"/>
       <c r="O6" s="12" t="n"/>
@@ -1381,15 +1374,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/31</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.26</v>
+        <v>689.67</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>683.9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1398,7 +1391,7 @@
         </is>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.004319994954750432</v>
+        <v>0.008366320124117305</v>
       </c>
       <c r="J7" s="12" t="n"/>
       <c r="O7" s="12" t="n"/>
@@ -1409,24 +1402,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>617.45</v>
+        <v>634.26</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>647.9</t>
+          <t>637</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>错误</t>
+          <t>正确</t>
         </is>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.04931573406753572</v>
+        <v>0.004319994954750432</v>
       </c>
       <c r="J8" s="12" t="n"/>
       <c r="O8" s="12" t="n"/>
@@ -1437,24 +1430,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025/05/31</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>628.16</v>
+        <v>617.45</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>629.9</t>
+          <t>647.9</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>正确</t>
+          <t>错误</t>
         </is>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.00276999490575651</v>
+        <v>0.04931573406753572</v>
       </c>
       <c r="J9" s="12" t="n"/>
       <c r="O9" s="12" t="n"/>
@@ -1465,19 +1458,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/31</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>670.23</v>
+        <v>628.16</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>629.9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>正确</t>
         </is>
       </c>
       <c r="E10" s="1" t="n">
-        <v>0.01606911060382254</v>
+        <v>0.00276999490575651</v>
       </c>
       <c r="J10" s="12" t="n"/>
       <c r="O10" s="12" t="n"/>
@@ -1488,13 +1486,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>686.4299999999999</v>
-      </c>
-      <c r="E11" s="1" t="n"/>
+        <v>670.23</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.01606911060382254</v>
+      </c>
       <c r="J11" s="12" t="n"/>
       <c r="O11" s="12" t="n"/>
       <c r="Q11" s="11" t="n"/>
@@ -1504,11 +1509,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>742.89</v>
+        <v>686.4299999999999</v>
       </c>
       <c r="E12" s="12" t="n"/>
       <c r="J12" s="12" t="n"/>
@@ -1520,11 +1525,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025/01/31</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.16</v>
+        <v>742.89</v>
       </c>
       <c r="E13" s="12" t="n"/>
       <c r="J13" s="12" t="n"/>
@@ -1536,11 +1541,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/31</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>792.5</v>
+        <v>768.16</v>
       </c>
       <c r="E14" s="12" t="n"/>
       <c r="J14" s="12" t="n"/>
@@ -1552,11 +1557,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024/11/30</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>844.05</v>
+        <v>792.5</v>
       </c>
       <c r="E15" s="12" t="n"/>
       <c r="J15" s="12" t="n"/>
@@ -1568,11 +1573,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/30</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>859.74</v>
+        <v>844.05</v>
       </c>
       <c r="E16" s="12" t="n"/>
       <c r="J16" s="12" t="n"/>
@@ -1584,11 +1589,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>857.14</v>
+        <v>859.74</v>
       </c>
       <c r="E17" s="12" t="n"/>
       <c r="J17" s="12" t="n"/>
@@ -1600,11 +1605,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024/08/31</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>844.3200000000001</v>
+        <v>857.14</v>
       </c>
       <c r="E18" s="12" t="n"/>
       <c r="J18" s="12" t="n"/>
@@ -1616,11 +1621,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024/07/31</t>
+          <t>2024/08/31</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>850.65</v>
+        <v>844.3200000000001</v>
       </c>
       <c r="E19" s="12" t="n"/>
       <c r="J19" s="12" t="n"/>
@@ -1632,11 +1637,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024/06/30</t>
+          <t>2024/07/31</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>871.58</v>
+        <v>850.65</v>
       </c>
       <c r="E20" s="12" t="n"/>
       <c r="J20" s="12" t="n"/>
@@ -1648,11 +1653,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024/05/31</t>
+          <t>2024/06/30</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>863.33</v>
+        <v>871.58</v>
       </c>
       <c r="E21" s="12" t="n"/>
       <c r="J21" s="12" t="n"/>
@@ -1664,11 +1669,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2024/04/30</t>
+          <t>2024/05/31</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>823.41</v>
+        <v>863.33</v>
       </c>
       <c r="E22" s="12" t="n"/>
       <c r="J22" s="12" t="n"/>
@@ -1680,11 +1685,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2024/03/31</t>
+          <t>2024/04/30</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>883.33</v>
+        <v>823.41</v>
       </c>
       <c r="E23" s="12" t="n"/>
       <c r="J23" s="12" t="n"/>
@@ -1696,11 +1701,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2024/02/29</t>
+          <t>2024/03/31</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>925.5599999999999</v>
+        <v>883.33</v>
       </c>
       <c r="E24" s="12" t="n"/>
       <c r="J24" s="12" t="n"/>
@@ -1712,82 +1717,80 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2024/01/31</t>
+          <t>2024/02/29</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>918.64</v>
+        <v>925.5599999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2023/12/31</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>943.6</t>
-        </is>
+          <t>2024/01/31</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>918.64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2023/11/30</t>
+          <t>2023/12/31</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>942</t>
+          <t>943.6</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2023/10/31</t>
+          <t>2023/11/30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>942</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2023/09/30</t>
+          <t>2023/10/31</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>926.8</t>
+          <t>1010</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2023/08/31</t>
+          <t>2023/09/30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>828.7</t>
+          <t>926.8</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2023/07/31</t>
+          <t>2023/08/31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>862.1</t>
+          <t>828.7</t>
         </is>
       </c>
       <c r="L31" s="10" t="n"/>
@@ -1796,12 +1799,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2023/06/30</t>
+          <t>2023/07/31</t>
         </is>
       </c>
       <c r="B32" s="10" t="inlineStr">
         <is>
-          <t>801.9</t>
+          <t>862.1</t>
         </is>
       </c>
       <c r="C32" s="10" t="n"/>
@@ -1809,12 +1812,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2023/05/31</t>
+          <t>2023/06/30</t>
         </is>
       </c>
       <c r="B33" s="10" t="inlineStr">
         <is>
-          <t>950.7</t>
+          <t>801.9</t>
         </is>
       </c>
       <c r="C33" s="10" t="n"/>
@@ -1822,46 +1825,58 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2023/04/30</t>
+          <t>2023/05/31</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>950.7</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2023/03/31</t>
+          <t>2023/04/30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1122</t>
+          <t>1027</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2023/02/28</t>
+          <t>2023/03/31</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1122</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>2023/02/28</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>2023/01/31</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>1206</t>
         </is>
@@ -1921,667 +1936,667 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025/11/27</t>
+          <t>2025/12/02</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>754.3304443359375</v>
+        <v>772.6366577148438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025/11/26</t>
+          <t>2025/12/01</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>756.3866577148438</v>
+        <v>768.9141845703125</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025/11/25</t>
+          <t>2025/11/28</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>757.964111328125</v>
+        <v>768.4838256835938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025/11/24</t>
+          <t>2025/11/27</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>755.3937377929688</v>
+        <v>769.1314697265625</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025/11/21</t>
+          <t>2025/11/26</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>754.9172973632812</v>
+        <v>769.84814453125</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025/11/20</t>
+          <t>2025/11/25</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>752.9962158203125</v>
+        <v>773.182861328125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025/11/19</t>
+          <t>2025/11/24</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>750.8340454101562</v>
+        <v>775.0428466796875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025/11/18</t>
+          <t>2025/11/21</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>748.4517822265625</v>
+        <v>776.6221313476562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025/11/17</t>
+          <t>2025/11/20</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>750.8002319335938</v>
+        <v>774.0746459960938</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025/11/14</t>
+          <t>2025/11/19</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>746.26025390625</v>
+        <v>773.60546875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025/11/13</t>
+          <t>2025/11/18</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>745.1216430664062</v>
+        <v>771.7402954101562</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025/11/12</t>
+          <t>2025/11/17</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>748.4054565429688</v>
+        <v>769.6621704101562</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025/11/11</t>
+          <t>2025/11/14</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>750.9679565429688</v>
+        <v>767.36572265625</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025/11/10</t>
+          <t>2025/11/13</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>749.9578247070312</v>
+        <v>769.7726440429688</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025/11/07</t>
+          <t>2025/11/12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>754.4022827148438</v>
+        <v>765.32958984375</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025/11/06</t>
+          <t>2025/11/11</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>758.0260620117188</v>
+        <v>764.2700805664062</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025/11/05</t>
+          <t>2025/11/10</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>762.4766235351562</v>
+        <v>767.6115112304688</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025/11/04</t>
+          <t>2025/11/07</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>761.9427490234375</v>
+        <v>770.2349853515625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025/11/03</t>
+          <t>2025/11/06</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>762.2263793945312</v>
+        <v>769.302490234375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025/10/31</t>
+          <t>2025/11/05</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>762.1874389648438</v>
+        <v>773.7947998046875</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025/10/30</t>
+          <t>2025/11/04</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>762.0684204101562</v>
+        <v>777.472412109375</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025/10/29</t>
+          <t>2025/11/03</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>763.6865844726562</v>
+        <v>781.9692993164062</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025/10/28</t>
+          <t>2025/10/31</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>762.3494262695312</v>
+        <v>781.5109252929688</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025/10/27</t>
+          <t>2025/10/30</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>760.933349609375</v>
+        <v>781.8662719726562</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025/10/24</t>
+          <t>2025/10/29</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>764</v>
+        <v>781.9006958007812</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025/10/23</t>
+          <t>2025/10/28</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025/10/22</t>
+          <t>2025/10/27</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025/10/21</t>
+          <t>2025/10/24</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>759</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025/10/20</t>
+          <t>2025/10/23</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>753</v>
+        <v>767</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025/10/17</t>
+          <t>2025/10/22</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>744</v>
+        <v>764</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025/10/16</t>
+          <t>2025/10/21</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>736</v>
+        <v>759</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025/10/15</t>
+          <t>2025/10/20</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728</v>
+        <v>753</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025/10/14</t>
+          <t>2025/10/17</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025/10/13</t>
+          <t>2025/10/16</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>715</v>
+        <v>736</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025/10/11</t>
+          <t>2025/10/15</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>711</v>
+        <v>728</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025/10/10</t>
+          <t>2025/10/14</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>706</v>
+        <v>720</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025/10/09</t>
+          <t>2025/10/13</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>705</v>
+        <v>715</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025/09/30</t>
+          <t>2025/10/11</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025/09/29</t>
+          <t>2025/10/10</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025/09/28</t>
+          <t>2025/10/09</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025/09/26</t>
+          <t>2025/09/30</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025/09/25</t>
+          <t>2025/09/29</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025/09/24</t>
+          <t>2025/09/28</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025/09/23</t>
+          <t>2025/09/26</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025/09/22</t>
+          <t>2025/09/25</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025/09/19</t>
+          <t>2025/09/24</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025/09/18</t>
+          <t>2025/09/23</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>700</v>
+        <v>709</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025/09/17</t>
+          <t>2025/09/22</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>696</v>
+        <v>708</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025/09/16</t>
+          <t>2025/09/19</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>690</v>
+        <v>705</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025/09/15</t>
+          <t>2025/09/18</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>685</v>
+        <v>700</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025/09/12</t>
+          <t>2025/09/17</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>681</v>
+        <v>696</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025/09/11</t>
+          <t>2025/09/16</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>681</v>
+        <v>690</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025/09/10</t>
+          <t>2025/09/15</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025/09/09</t>
+          <t>2025/09/12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025/09/08</t>
+          <t>2025/09/11</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025/09/05</t>
+          <t>2025/09/10</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025/09/04</t>
+          <t>2025/09/09</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025/09/03</t>
+          <t>2025/09/08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025/09/02</t>
+          <t>2025/09/05</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025/09/01</t>
+          <t>2025/09/04</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025/08/29</t>
+          <t>2025/09/03</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025/08/28</t>
+          <t>2025/09/02</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025/08/27</t>
+          <t>2025/09/01</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025/08/26</t>
+          <t>2025/08/29</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025/08/25</t>
+          <t>2025/08/28</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025/08/22</t>
+          <t>2025/08/27</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025/08/21</t>
+          <t>2025/08/26</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2591,7 +2606,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025/08/20</t>
+          <t>2025/08/25</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2601,7 +2616,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025/08/19</t>
+          <t>2025/08/22</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2611,347 +2626,347 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025/08/18</t>
+          <t>2025/08/21</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025/08/15</t>
+          <t>2025/08/20</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025/08/14</t>
+          <t>2025/08/19</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025/08/13</t>
+          <t>2025/08/18</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025/08/12</t>
+          <t>2025/08/15</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025/08/11</t>
+          <t>2025/08/14</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>685</v>
+        <v>695</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025/08/08</t>
+          <t>2025/08/13</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>680</v>
+        <v>694</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025/08/07</t>
+          <t>2025/08/12</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>677</v>
+        <v>690</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025/08/06</t>
+          <t>2025/08/11</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>673</v>
+        <v>685</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025/08/05</t>
+          <t>2025/08/08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>668</v>
+        <v>680</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025/08/04</t>
+          <t>2025/08/07</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>662</v>
+        <v>677</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025/08/01</t>
+          <t>2025/08/06</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>657</v>
+        <v>673</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025/07/31</t>
+          <t>2025/08/05</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>653</v>
+        <v>668</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025/07/30</t>
+          <t>2025/08/04</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>652</v>
+        <v>662</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025/07/29</t>
+          <t>2025/08/01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025/07/28</t>
+          <t>2025/07/31</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025/07/25</t>
+          <t>2025/07/30</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025/07/24</t>
+          <t>2025/07/29</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025/07/23</t>
+          <t>2025/07/28</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>644</v>
+        <v>649</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025/07/22</t>
+          <t>2025/07/25</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025/07/21</t>
+          <t>2025/07/24</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025/07/18</t>
+          <t>2025/07/23</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025/07/17</t>
+          <t>2025/07/22</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025/07/16</t>
+          <t>2025/07/21</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>633</v>
+        <v>640</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025/07/15</t>
+          <t>2025/07/18</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>631</v>
+        <v>638</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025/07/14</t>
+          <t>2025/07/17</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025/07/11</t>
+          <t>2025/07/16</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025/07/10</t>
+          <t>2025/07/15</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025/07/09</t>
+          <t>2025/07/14</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>623</v>
+        <v>630</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025/07/08</t>
+          <t>2025/07/11</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025/07/07</t>
+          <t>2025/07/10</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025/07/04</t>
+          <t>2025/07/09</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025/07/03</t>
+          <t>2025/07/08</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025/07/02</t>
+          <t>2025/07/07</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025/07/01</t>
+          <t>2025/07/04</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2961,7 +2976,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025/06/30</t>
+          <t>2025/07/03</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2971,67 +2986,67 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025/06/27</t>
+          <t>2025/07/02</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025/06/26</t>
+          <t>2025/07/01</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025/06/25</t>
+          <t>2025/06/30</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025/06/24</t>
+          <t>2025/06/27</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025/06/23</t>
+          <t>2025/06/26</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025/06/20</t>
+          <t>2025/06/25</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025/06/19</t>
+          <t>2025/06/24</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3041,7 +3056,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025/06/18</t>
+          <t>2025/06/23</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -3051,7 +3066,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025/06/17</t>
+          <t>2025/06/20</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -3061,7 +3076,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025/06/16</t>
+          <t>2025/06/19</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3071,7 +3086,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025/06/13</t>
+          <t>2025/06/18</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -3081,7 +3096,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025/06/12</t>
+          <t>2025/06/17</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -3091,7 +3106,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025/06/11</t>
+          <t>2025/06/16</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -3101,7 +3116,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025/06/10</t>
+          <t>2025/06/13</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -3111,7 +3126,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025/06/09</t>
+          <t>2025/06/12</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3121,7 +3136,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025/06/06</t>
+          <t>2025/06/11</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3131,7 +3146,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025/06/05</t>
+          <t>2025/06/10</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -3141,47 +3156,47 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025/06/04</t>
+          <t>2025/06/09</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025/06/03</t>
+          <t>2025/06/06</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025/05/30</t>
+          <t>2025/06/05</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025/05/29</t>
+          <t>2025/06/04</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025/05/28</t>
+          <t>2025/06/03</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3191,7 +3206,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025/05/27</t>
+          <t>2025/05/30</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3201,7 +3216,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025/05/26</t>
+          <t>2025/05/29</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3211,7 +3226,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025/05/23</t>
+          <t>2025/05/28</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -3221,7 +3236,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025/05/22</t>
+          <t>2025/05/27</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3231,7 +3246,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025/05/21</t>
+          <t>2025/05/26</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3241,7 +3256,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025/05/20</t>
+          <t>2025/05/23</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3251,37 +3266,37 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025/05/19</t>
+          <t>2025/05/22</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025/05/16</t>
+          <t>2025/05/21</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025/05/15</t>
+          <t>2025/05/20</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025/05/14</t>
+          <t>2025/05/19</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -3291,97 +3306,97 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025/05/13</t>
+          <t>2025/05/16</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025/05/12</t>
+          <t>2025/05/15</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025/05/09</t>
+          <t>2025/05/14</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>640</v>
+        <v>625</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025/05/08</t>
+          <t>2025/05/13</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>645</v>
+        <v>630</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025/05/07</t>
+          <t>2025/05/12</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>650</v>
+        <v>635</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025/05/06</t>
+          <t>2025/05/09</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>655</v>
+        <v>640</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025/04/30</t>
+          <t>2025/05/08</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>660</v>
+        <v>645</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025/04/29</t>
+          <t>2025/05/07</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025/04/28</t>
+          <t>2025/05/06</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>660</v>
+        <v>655</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025/04/27</t>
+          <t>2025/04/30</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -3391,97 +3406,97 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025/04/25</t>
+          <t>2025/04/29</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025/04/24</t>
+          <t>2025/04/28</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025/04/23</t>
+          <t>2025/04/27</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025/04/22</t>
+          <t>2025/04/25</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025/04/21</t>
+          <t>2025/04/24</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025/04/18</t>
+          <t>2025/04/23</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025/04/17</t>
+          <t>2025/04/22</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025/04/16</t>
+          <t>2025/04/21</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025/04/15</t>
+          <t>2025/04/18</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025/04/14</t>
+          <t>2025/04/17</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -3491,7 +3506,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025/04/11</t>
+          <t>2025/04/16</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -3501,7 +3516,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025/04/10</t>
+          <t>2025/04/15</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -3511,7 +3526,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025/04/09</t>
+          <t>2025/04/14</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -3521,7 +3536,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025/04/08</t>
+          <t>2025/04/11</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -3531,7 +3546,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025/04/07</t>
+          <t>2025/04/10</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -3541,7 +3556,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025/04/03</t>
+          <t>2025/04/09</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -3551,7 +3566,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025/04/02</t>
+          <t>2025/04/08</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -3561,7 +3576,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025/04/01</t>
+          <t>2025/04/07</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -3571,7 +3586,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025/03/31</t>
+          <t>2025/04/03</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -3581,7 +3596,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025/03/28</t>
+          <t>2025/04/02</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -3591,7 +3606,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025/03/27</t>
+          <t>2025/04/01</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -3601,7 +3616,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025/03/26</t>
+          <t>2025/03/31</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -3611,117 +3626,117 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025/03/25</t>
+          <t>2025/03/28</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025/03/24</t>
+          <t>2025/03/27</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025/03/21</t>
+          <t>2025/03/26</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025/03/20</t>
+          <t>2025/03/25</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025/03/19</t>
+          <t>2025/03/24</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025/03/18</t>
+          <t>2025/03/21</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025/03/17</t>
+          <t>2025/03/20</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025/03/14</t>
+          <t>2025/03/19</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025/03/13</t>
+          <t>2025/03/18</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025/03/12</t>
+          <t>2025/03/17</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025/03/11</t>
+          <t>2025/03/14</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025/03/10</t>
+          <t>2025/03/13</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -3731,7 +3746,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025/03/07</t>
+          <t>2025/03/12</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -3741,227 +3756,227 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025/03/06</t>
+          <t>2025/03/11</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025/03/05</t>
+          <t>2025/03/10</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025/03/04</t>
+          <t>2025/03/07</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025/03/03</t>
+          <t>2025/03/06</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025/02/28</t>
+          <t>2025/03/05</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025/02/27</t>
+          <t>2025/03/04</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>710</v>
+        <v>690</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025/02/26</t>
+          <t>2025/03/03</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>715</v>
+        <v>695</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025/02/25</t>
+          <t>2025/02/28</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>720</v>
+        <v>700</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025/02/24</t>
+          <t>2025/02/27</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>725</v>
+        <v>710</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025/02/21</t>
+          <t>2025/02/26</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>730</v>
+        <v>715</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025/02/20</t>
+          <t>2025/02/25</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>735</v>
+        <v>720</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025/02/19</t>
+          <t>2025/02/24</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>740</v>
+        <v>725</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025/02/18</t>
+          <t>2025/02/21</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>745</v>
+        <v>730</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025/02/17</t>
+          <t>2025/02/20</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>750</v>
+        <v>735</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025/02/14</t>
+          <t>2025/02/19</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>750</v>
+        <v>740</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025/02/13</t>
+          <t>2025/02/18</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>755</v>
+        <v>745</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025/02/12</t>
+          <t>2025/02/17</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>760</v>
+        <v>750</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025/02/11</t>
+          <t>2025/02/14</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>760</v>
+        <v>750</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025/02/10</t>
+          <t>2025/02/13</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025/02/08</t>
+          <t>2025/02/12</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025/02/07</t>
+          <t>2025/02/11</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025/02/06</t>
+          <t>2025/02/10</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025/02/05</t>
+          <t>2025/02/08</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3971,7 +3986,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025/01/27</t>
+          <t>2025/02/07</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3981,7 +3996,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025/01/26</t>
+          <t>2025/02/06</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3991,7 +4006,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025/01/24</t>
+          <t>2025/02/05</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -4001,7 +4016,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025/01/23</t>
+          <t>2025/01/27</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -4011,7 +4026,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025/01/22</t>
+          <t>2025/01/26</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -4021,7 +4036,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025/01/21</t>
+          <t>2025/01/24</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -4031,7 +4046,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025/01/20</t>
+          <t>2025/01/23</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -4041,37 +4056,37 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025/01/17</t>
+          <t>2025/01/22</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025/01/16</t>
+          <t>2025/01/21</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025/01/15</t>
+          <t>2025/01/20</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025/01/14</t>
+          <t>2025/01/17</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -4081,7 +4096,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025/01/13</t>
+          <t>2025/01/16</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -4091,7 +4106,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025/01/10</t>
+          <t>2025/01/15</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -4101,7 +4116,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025/01/09</t>
+          <t>2025/01/14</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -4111,7 +4126,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025/01/08</t>
+          <t>2025/01/13</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -4121,7 +4136,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025/01/07</t>
+          <t>2025/01/10</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -4131,7 +4146,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2025/01/09</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -4141,7 +4156,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025/01/03</t>
+          <t>2025/01/08</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -4151,7 +4166,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025/01/02</t>
+          <t>2025/01/07</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -4161,7 +4176,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2024/12/31</t>
+          <t>2025/01/06</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -4171,7 +4186,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2024/12/30</t>
+          <t>2025/01/03</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -4181,37 +4196,37 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2024/12/27</t>
+          <t>2025/01/02</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2024/12/26</t>
+          <t>2024/12/31</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2024/12/25</t>
+          <t>2024/12/30</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2024/12/24</t>
+          <t>2024/12/27</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -4221,147 +4236,147 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2024/12/23</t>
+          <t>2024/12/26</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2024/12/20</t>
+          <t>2024/12/25</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>775</v>
+        <v>765</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2024/12/19</t>
+          <t>2024/12/24</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>780</v>
+        <v>765</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2024/12/18</t>
+          <t>2024/12/23</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>785</v>
+        <v>770</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2024/12/17</t>
+          <t>2024/12/20</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>790</v>
+        <v>775</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2024/12/16</t>
+          <t>2024/12/19</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>795</v>
+        <v>780</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2024/12/13</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>800</v>
+        <v>785</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2024/12/12</t>
+          <t>2024/12/17</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>805</v>
+        <v>790</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2024/12/11</t>
+          <t>2024/12/16</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>805</v>
+        <v>795</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2024/12/10</t>
+          <t>2024/12/13</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2024/12/09</t>
+          <t>2024/12/12</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2024/12/06</t>
+          <t>2024/12/11</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>820</v>
+        <v>805</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2024/12/05</t>
+          <t>2024/12/10</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>820</v>
+        <v>810</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2024/12/04</t>
+          <t>2024/12/09</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2024/12/03</t>
+          <t>2024/12/06</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -4371,57 +4386,57 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2024/12/02</t>
+          <t>2024/12/05</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2024/11/29</t>
+          <t>2024/12/04</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>825</v>
+        <v>820</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2024/11/28</t>
+          <t>2024/12/03</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2024/11/27</t>
+          <t>2024/12/02</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2024/11/26</t>
+          <t>2024/11/29</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>830</v>
+        <v>825</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2024/11/25</t>
+          <t>2024/11/28</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -4431,7 +4446,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2024/11/22</t>
+          <t>2024/11/27</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -4441,107 +4456,107 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2024/11/21</t>
+          <t>2024/11/26</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>835</v>
+        <v>830</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2024/11/20</t>
+          <t>2024/11/25</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>840</v>
+        <v>830</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2024/11/19</t>
+          <t>2024/11/22</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>840</v>
+        <v>830</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2024/11/18</t>
+          <t>2024/11/21</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>845</v>
+        <v>835</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2024/11/15</t>
+          <t>2024/11/20</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2024/11/14</t>
+          <t>2024/11/19</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>850</v>
+        <v>840</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2024/11/13</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2024/11/12</t>
+          <t>2024/11/15</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2024/11/11</t>
+          <t>2024/11/14</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2024/11/08</t>
+          <t>2024/11/13</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2024/11/07</t>
+          <t>2024/11/12</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -4551,7 +4566,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2024/11/06</t>
+          <t>2024/11/11</t>
         </is>
       </c>
       <c r="B266" t="n">
@@ -4561,7 +4576,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2024/11/05</t>
+          <t>2024/11/08</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -4571,7 +4586,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2024/11/04</t>
+          <t>2024/11/07</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -4581,7 +4596,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2024/11/01</t>
+          <t>2024/11/06</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -4591,7 +4606,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2024/10/31</t>
+          <t>2024/11/05</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -4601,7 +4616,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2024/10/30</t>
+          <t>2024/11/04</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -4611,7 +4626,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2024/10/29</t>
+          <t>2024/11/01</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -4621,7 +4636,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2024/10/28</t>
+          <t>2024/10/31</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -4631,7 +4646,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2024/10/25</t>
+          <t>2024/10/30</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4641,7 +4656,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2024/10/24</t>
+          <t>2024/10/29</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4651,7 +4666,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2024/10/23</t>
+          <t>2024/10/28</t>
         </is>
       </c>
       <c r="B276" t="n">
@@ -4661,7 +4676,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2024/10/22</t>
+          <t>2024/10/25</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4671,7 +4686,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2024/10/21</t>
+          <t>2024/10/24</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4681,7 +4696,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2024/10/18</t>
+          <t>2024/10/23</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4691,7 +4706,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/10/22</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4701,77 +4716,77 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2024/10/16</t>
+          <t>2024/10/21</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2024/10/15</t>
+          <t>2024/10/18</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2024/10/14</t>
+          <t>2024/10/17</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2024/10/12</t>
+          <t>2024/10/16</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>865</v>
+        <v>860</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2024/10/11</t>
+          <t>2024/10/15</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>870</v>
+        <v>860</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2024/10/10</t>
+          <t>2024/10/14</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2024/10/09</t>
+          <t>2024/10/12</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>2024/10/08</t>
+          <t>2024/10/11</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4781,7 +4796,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>2024/09/30</t>
+          <t>2024/10/10</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4791,7 +4806,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>2024/09/29</t>
+          <t>2024/10/09</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4801,7 +4816,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>2024/09/27</t>
+          <t>2024/10/08</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4811,7 +4826,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>2024/09/26</t>
+          <t>2024/09/30</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4821,7 +4836,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>2024/09/25</t>
+          <t>2024/09/29</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4831,7 +4846,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>2024/09/24</t>
+          <t>2024/09/27</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4841,7 +4856,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>2024/09/23</t>
+          <t>2024/09/26</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4851,7 +4866,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>2024/09/20</t>
+          <t>2024/09/25</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4861,41 +4876,41 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>2024/09/19</t>
+          <t>2024/09/24</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>865</v>
+        <v>870</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/09/23</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>860</v>
+        <v>870</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>2024/09/14</t>
+          <t>2024/09/20</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>855</v>
+        <v>870</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2024/09/13</t>
+          <t>2024/09/19</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>855</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
